--- a/app/2025-04-28_Coupon_Books.xlsx
+++ b/app/2025-04-28_Coupon_Books.xlsx
@@ -498,7 +498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-13 16:45:53.874</t>
+          <t>2025-05-14 15:11:10.273</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mower</t>
+          <t>Jet Blower</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +540,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-13 16:45:54.461</t>
+          <t>2025-05-14 15:11:10.873</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -555,12 +555,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TRANSFORM YOUR OUTDOOR SPACE</t>
+          <t>TRANSFORM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>aA. * - «ue Aa om =) ? rig) abe. “* koe i $Q4OOFF = s5OFF A Miracle-Cro® Organic Mracie-tro® = Choloe® Matsture Controf® ‘Shake ‘n Feed? AN Potting Aix with Compost Piarposa Plant Food Mes souls veo lame ela fh acs. $4999 SqQorr aaa ‘Grass Xilor with Easy Mc Refi z= II vena aS = pe</t>
+          <t>YOUR OUTDOOR SPACE aA. * - «ue Aa om =) ? rig) abe. “* koe i $Q4OOFF = s5OFF A Miracle-Cro® Organic Mracie-tro® = Choloe® Matsture Controf® ‘Shake ‘n Feed? AN Potting Aix with Compost Piarposa Plant Food Mes souls veo lame ela fh acs. $4999 SqQorr aaa ‘Grass Xilor with Easy Mc Refi z= II vena aS = pe</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -582,7 +582,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-13 16:45:55.661</t>
+          <t>2025-05-14 15:11:12.453</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -595,14 +595,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>S) Gi</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>S) Gi ae The benefits keep adding up z NEW all-around iN blowout protection” 2. HUGGIESEY add gis I APTER‘O OFF Lie Seager ¥ ee Sere 3 Costdbinsidercom WY a IMTS STE TO *R Es Get more for your mover = Now with more diapers per box! * tum $3999" UGGIES o = @eE a 3-7 I, 2 6 Huccls ye 2 Bees = Ee ca n : M4, Costcolnsider.com Ro ‘Savings valid Apr 9 - May 4, 2O25 “Online prices may be higher.</t>
+          <t>S) Gi ae The benefits keep adding up z NEW all-around iN blowout protection” 2. HUGGIESEY add gis I APTER‘O OFF Lie Seager ¥ ee Sere 3 Costdbinsidercom WY a IMTS STE TO *R Es Get more for your mover = Now with more diapers per box! * tum $3999" UGGIES o = @eE a 3-7 I, 2 6 Huccls ye 2 Bees = Ee ca n : M4, Costcolnsider.com Ro ‘Savings valid Apr 9 - May 4, 2O25 “Online prices may be higher</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -624,7 +620,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-13 16:45:56.540</t>
+          <t>2025-05-14 15:11:13.324</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -637,14 +633,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[ vsusiness</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Center I \ Costeo.com Ry Foe $G OFF’ I AFTER</t>
+          <t>vsusiness Center I \ Costeo.com Ry Foe $G OFF’ I AFTER</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -674,7 +666,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-13 16:45:56.540</t>
+          <t>2025-05-14 15:11:13.324</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -687,14 +679,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$8 OFF</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sagt Colgate Total Advanced Whitening tiyero Boost a Toothpaste FT] Water Creams awitieee Colgate I munreremarsbae colgatesw v ~ EET”, OEE CRETEACEET I</t>
+          <t>8 OFF sagt Colgate Total Advanced Whitening tiyero Boost a Toothpaste FT] Water Creams awitieee Colgate I munreremarsbae colgatesw v ~ EET”, OEE CRETEACEET I</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -724,7 +712,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-13 16:45:56.540</t>
+          <t>2025-05-14 15:11:13.324</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -737,14 +725,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$4 OFF"</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>45OOFF" I Neutragena® Beach Defense SPF 6O+ even ' Sunssoreen Spray 2:8 Sc Mec aBB ss: : ion eo , 4 PR Acero 2I em I78389O i tiers zs — I SEE es es foe © Costcoinsier. pened e oise megermeor nei PLUS* FRESH PROTECTION wo wed CRise . ee naa Puss 4 ee en C2 soe om “oe +Costeo.com +Cosico.com $4Q°FF sqQorF Depend Fresh Poise Fresh Protection” Pus Protelion” Advanced ulimate anserseney Long Pads Sime AUANTIOR ew Sst Rah Savings valid April 9 ~ May 4, 2O25 Costeotnsider.com</t>
+          <t>4 OFF" $45OOFF" I Neutragena® Beach Defense SPF 6O+ even ' Sunssoreen Spray 2:8 Sc Mec aBB ss: : ion eo , 4 PR Acero 2I em I78389O i tiers zs — I SEE es es foe © Costcoinsier. pened e oise megermeor nei PLUS* FRESH PROTECTION wo wed CRise . ee naa Puss 4 ee en C2 soe om “oe +Costeo.com +Cosico.com $4Q°FF sqQorF Depend Fresh Poise Fresh Protection” Pus Protelion” Advanced ulimate anserseney Long Pads Sime AUANTIOR ew Sst Rah Savings valid April 9 ~ May 4, 2O25 Costeotnsider.com</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -774,7 +758,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-05-13 16:45:57.370</t>
+          <t>2025-05-14 15:11:14.418</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -824,7 +808,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-05-13 16:45:57.370</t>
+          <t>2025-05-14 15:11:14.418</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -837,14 +821,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$2 OFF”</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Seat Bay TA gear ia: -— [nye ets Quins, BD I 22: BSDy . S gel wy I Bava ee iaits. Oe mw _ en $gorr I aaa S$QOFF I Yitery Gillette Venus Confortglide Gitette Mach3 Advanced a ee corns esr erm Gi i B= 8 if _ eee LUO WELCOME, SPRING SHOWERS oe a I wakSSENTIAL 4! vy BOTANICALS si my = Moroccan Rose &amp; Manuka Honey, 38.2 8 O2 ae es rd a em 5EG27 I9O9678 LEAT 3 EACH ) elder com, OLA = . QA J «I 7 I7 ES % (eee I aay OW Jou) WY EY adh cables,’ Eatin Bar Soap $4 orF enna Variety pack, I6/375 O2 "ie thom I9II242 LMT 3 ‘Otay Exsontial Botaniogia Bd} We Vawiely pack, I23.8 fog” . sas carts nao Savings valid April 9 ~ May 4, 2O25 “Online prices maybe nghes</t>
+          <t>2 OFF” Seat Bay TA gear ia: -— [nye ets Quins, BD I 22: BSDy . S gel wy I Bava ee iaits. Oe mw _ en $gorr I aaa S$QOFF I Yitery Gillette Venus Confortglide Gitette Mach3 Advanced a ee corns esr erm Gi i B= 8 if _ eee LUO WELCOME, SPRING SHOWERS oe a I wakSSENTIAL 4! vy BOTANICALS si my = Moroccan Rose &amp; Manuka Honey, 38.2 8 O2 ae es rd a em 5EG27 I9O9678 LEAT 3 EACH ) elder com, OLA = . QA J «I 7 I7 ES % (eee I aay OW Jou) WY EY adh cables,’ Eatin Bar Soap $4 orF enna Variety pack, I6/375 O2 "ie thom I9II242 LMT 3 ‘Otay Exsontial Botaniogia Bd} We Vawiely pack, I23.8 fog” . sas carts nao Savings valid April 9 ~ May 4, 2O25 “Online prices maybe nghes</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -874,7 +854,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-05-13 16:45:58.148</t>
+          <t>2025-05-14 15:11:15.133</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -924,7 +904,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-05-13 16:45:58.148</t>
+          <t>2025-05-14 15:11:15.133</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -974,7 +954,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-05-13 16:45:58.892</t>
+          <t>2025-05-14 15:11:16.043</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -987,14 +967,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>" $I4999</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>I4999 Ym 8I4OOF © ARTER SEE Dyson ¥I5 Detect ‘Shark Navigator? Lift-Away® Total Clean Extra ‘Upright Vacuum with Cordless Stick Sett-taning Broshrolt Vacuum eae! ss $699O WEEE $29999 AFTER $2O OFF AFTER SIOO OFF ISSELL cheng nts Green = S-Qvort MuttiGlean Bowi-Litt Portable " Stand Mixer Seen I Ser” Gieaner I bacco ere. ap I y \ \ a * I “ —_ $Q OFF :</t>
+          <t>I4999 Ym 8I4OOF © ARTER SEE Dyson ¥I5 Detect ‘Shark Navigator? Lift-Away® Total Clean Extra ‘Upright Vacuum with Cordless Stick Sett-taning Broshrolt Vacuum eae! ss $699O WEEE $29999 AFTER $2O OFF AFTER SIOO OFF ISSELL cheng nts Green = S-Qvort MuttiGlean Bowi-Litt Portable " Stand Mixer Seen I Ser” Gieaner I bacco ere. ap I y \ \ a * I “ —_ $Q OFF</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1024,7 +1000,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-05-13 16:45:58.892</t>
+          <t>2025-05-14 15:11:16.043</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1037,14 +1013,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>$7 OFF</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>B +Cosico con) \ ‘Starbucks® By Keutig® K-« Pods 8O Roce ror I beeen oes Ie PEA FRne oss act a Te anna Ws 8 oA 7 ae oy iy . 4 Re 7 Nem i A sen Ie3O8 m8 ‘ 328 pie US Boa q ans tes i— “igs ' ' a so 2O $I599" $7999 AFTER</t>
+          <t>7 OFF B +Cosico con) \ ‘Starbucks® By Keutig® K-« Pods 8O Roce ror I beeen oes Ie PEA FRne oss act a Te anna Ws 8 oA 7 ae oy iy . 4 Re 7 Nem i A sen Ie3O8 m8 ‘ 328 pie US Boa q ans tes i— “igs ' ' a so 2O $I599" $7999 AFTER</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1074,7 +1046,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-05-13 16:45:58.892</t>
+          <t>2025-05-14 15:11:16.043</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1087,14 +1059,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$4OFF AFTER</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2OOFF I coumeia Keurig? K-Cafe ‘Tote Blarkot barista Bar Secon aes Single Serve tem oz Coffne Maker UNNT Ic &gt; a Ines P rae ae ge pon ter aus — —— bi sideLooth ‘Savings valid April 9— May 4, 2O25 *Onling prices maybe fiyhet</t>
+          <t>4OFF AFTER $2OOFF I coumeia Keurig? K-Cafe ‘Tote Blarkot barista Bar Secon aes Single Serve tem oz Coffne Maker UNNT Ic &gt; a Ines P rae ae ge pon ter aus — —— bi sideLooth ‘Savings valid April 9— May 4, 2O25 *Onling prices maybe fiyhet</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1124,7 +1092,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-05-13 16:45:59.598</t>
+          <t>2025-05-14 15:11:16.888</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1137,11 +1105,7 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>$4299" $4499</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>4299" $4499 “+Gostco.comI AFTER</t>
@@ -1174,7 +1138,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-05-13 16:45:59.598</t>
+          <t>2025-05-14 15:11:16.888</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1187,11 +1151,7 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$4OFF AFTER</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>4OFF AFTER</t>
@@ -1224,7 +1184,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-05-13 16:45:59.598</t>
+          <t>2025-05-14 15:11:16.888</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1237,11 +1197,7 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>$5OFF :</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>5OFF : Unionbay Weatherproof ald Men's Cargo Short Vintage Men's: Sescrn aes, Tech Pant Svan Soca ares tian tam act wats I B u L . . $II99 Er I $4499" ‘+Costco.com AFTER S3OFF AFTER</t>
@@ -1274,7 +1230,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-05-13 16:45:59.598</t>
+          <t>2025-05-14 15:11:16.888</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1287,14 +1243,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>$2OFF ag</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Puma Men's Pura Men's f% eo ‘Woven Active Acts Tee +a d Son tes meno fem 5IOI7 Slit , tia A, I PY N I I . $IO99" ome I $999" FE AFTER</t>
+          <t>2OFF ag °-~. Puma Men's Pura Men's f% eo ‘Woven Active Acts Tee +a d Son tes meno fem 5IOI7 Slit , tia A, I PY N I I . $IO99" ome I $999" FE AFTER</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1324,7 +1276,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-05-13 16:45:59.598</t>
+          <t>2025-05-14 15:11:16.888</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1337,14 +1289,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>$2 OFF</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Br, ARTER</t>
+          <t>2 OFF Br, ARTER</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1374,7 +1322,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-05-13 16:45:59.598</t>
+          <t>2025-05-14 15:11:16.888</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1387,14 +1335,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>$3 OFF</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Weatherproof TB Be, I 22 O&lt;qree: A ‘Vintage a AF ; ‘Men's Cool i Ms nen IR AREER: I Tee “i ostcoltgiddricomy Sens MON) Bn cces pect tu yen tan I72OO5 aeons (sit I ii I tet I 4 “3eA2ES MM I cise ! a ' $4I99" $4I99" AFTER</t>
+          <t>3 OFF Weatherproof TB Be, I 22 O&lt;qree: A ‘Vintage a AF ; ‘Men's Cool i Ms nen IR AREER: I Tee “i ostcoltgiddricomy Sens MON) Bn cces pect tu yen tan I72OO5 aeons (sit I ii I tet I 4 “3eA2ES MM I cise ! a ' $4I99" $4I99" AFTER</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1424,7 +1368,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-05-13 16:45:59.598</t>
+          <t>2025-05-14 15:11:16.893</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1437,11 +1381,7 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>$3OFF AFTER</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>3OFF AFTER</t>
@@ -1474,7 +1414,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-05-13 16:45:59.598</t>
+          <t>2025-05-14 15:11:16.894</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1487,14 +1427,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>$3OFF Gloria</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Vanderbitt ERa Moss Ladies’ Chino Short Ladies Sec tes ce Emon Sieeve sen Ieese bec re 624 Gara é , ne Savings valid Apel 9 - May 4, 2O25 Costcolnsider.com</t>
+          <t>3OFF Gloria Vanderbitt ERa Moss Ladies’ Chino Short Ladies Sec tes ce Emon Sieeve sen Ieese bec re 624 Gara é , ne Savings valid Apel 9 - May 4, 2O25 Costcolnsider.com</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1524,7 +1460,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:00.239</t>
+          <t>2025-05-14 15:11:17.483</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1537,11 +1473,7 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>$999" Emr)</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>999" Emr) I $799" ofbral AFTER</t>
@@ -1574,7 +1506,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:00.239</t>
+          <t>2025-05-14 15:11:17.483</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1587,14 +1519,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>$2 OFF</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>relia / i / I ondets Laces Ladies? I Shor Skeve Rinbed i Seamless Tee 9 I GZ Fy $39999 EEE I $59999 AFTER $IOO OFF AFTER $I5O OFF Novatorm I4" CamfortGrande Advanced I Sealy Posturepodic Pius Mount Auburn Calero foam teen Matvess I 42" Madr big Matters ae = Pee ae</t>
+          <t>2 OFF relia / i / I ondets Laces Ladies? I Shor Skeve Rinbed i Seamless Tee 9 I GZ Fy $39999 EEE I $59999 AFTER $IOO OFF AFTER $I5O OFF Novatorm I4" CamfortGrande Advanced I Sealy Posturepodic Pius Mount Auburn Calero foam teen Matvess I 42" Madr big Matters ae = Pee ae</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1624,7 +1552,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:00.239</t>
+          <t>2025-05-14 15:11:17.483</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1637,14 +1565,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>$7OFF $7I99</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7OFF $7I99 GTX Solar LED Pathway: I AFTER $I8O OFF tbe a boris Firman 75OO} Running/S4OOW an 7896OO5, I Peak Jri-Fuel Generator $45 Orr SGQOrF’ Kobler Tellin I.75 ( Kohler Guild (GPM Multifunction 4 Pull-Down: Faucet i Lome iral as meine Roa ses F wats - ‘rake on Coston com I I fe omc ims i, is ‘Savings valid April 9 — May 4, 2O25 *Ontine prices maybe highes.</t>
+          <t>7OFF $7I99 GTX Solar LED Pathway: I AFTER $I8O OFF tbe a boris Firman 75OO} Running/S4OOW an 7896OO5, I Peak Jri-Fuel Generator $45 Orr SGQOrF’ Kobler Tellin I.75 ( Kohler Guild (GPM Multifunction 4 Pull-Down: Faucet i Lome iral as meine Roa ses F wats - ‘rake on Coston com I I fe omc ims i, is ‘Savings valid April 9 — May 4, 2O25 *Ontine prices maybe highes</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1674,7 +1598,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:00.823</t>
+          <t>2025-05-14 15:11:18.235</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1687,14 +1611,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>$2I99 ‘vam</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>27999 © AFTER $6O OFF AFTER $8O OFF is Shark FlexStyie® stying idea I2OOO BTU U-Shape ey and Drying System ‘Window fe Conditioner I Patent &gt; z =~ . * yaa I wm I $ggoo" $57999 tJ) AFTER S3O OFF LG 75" Class - UT6OOO Sertes - Bose SoundLink Flex SE 4K UHD LED LED TY Bluetooth Spealeee Sepceneor rsepecase na sarc meeumom wi I9 LG UHD I Ne SN Costcolnsider.com Yo cast $39999° SB9999 ©O@ I arters2OOOrF 68 Samsung 75" Class - O72O Series - 4K Dell Inspiron I5.6" IO8Op: UND QLED LOD TV Touchscreen Laptop sub Stevtemcantin arenas I ten SEE 'S years O bxal covirag? Shop Coston com ww sags, M8 2 ~ 7 anaOs moos ten 5O75IO : 7 _~ veo I&gt; Ee —_— Bi sizc8 sso Py) Save $35O, plus geta # +P g Pade $IOO Costco Shop Card Cape when you switch te AT&amp;T FE Big Miieemmy S2'79 requires purchase of a new smartphone on ae GM nscallment plan with an eligible wiretess plan** shop Search"ATET" on Costco.com to finda participating Costco warehouse or shop onting. i ocassuanunenrunerremmm™ +Business Center «Costco.com _] Fike never pees nein np a FP we oe eae Ma Ques Cwsren th CSD Ee ev Maa mead aap SuTCoSa Seer) Cee tects sft Ure oman a Secseld oe — Savings valid April 9 - May 4, 2O25 Ors Oser~</t>
+          <t>2I99 ‘vam $27999 © AFTER $6O OFF AFTER $8O OFF is Shark FlexStyie® stying idea I2OOO BTU U-Shape ey and Drying System ‘Window fe Conditioner I Patent &gt; z =~ . * yaa I wm I $ggoo" $57999 tJ) AFTER S3O OFF LG 75" Class - UT6OOO Sertes - Bose SoundLink Flex SE 4K UHD LED LED TY Bluetooth Spealeee Sepceneor rsepecase na sarc meeumom wi I9 LG UHD I Ne SN Costcolnsider.com Yo cast $39999° SB9999 ©O@ I arters2OOOrF 68 Samsung 75" Class - O72O Series - 4K Dell Inspiron I5.6" IO8Op: UND QLED LOD TV Touchscreen Laptop sub Stevtemcantin arenas I ten SEE 'S years O bxal covirag? Shop Coston com ww sags, M8 2 ~ 7 anaOs moos ten 5O75IO : 7 _~ veo I&gt; Ee —_— Bi sizc8 sso Py) Save $35O, plus geta # +P g Pade $IOO Costco Shop Card Cape when you switch te AT&amp;T FE Big Miieemmy S2'79 requires purchase of a new smartphone on ae GM nscallment plan with an eligible wiretess plan** shop Search"ATET" on Costco.com to finda participating Costco warehouse or shop onting. i ocassuanunenrunerremmm™ +Business Center «Costco.com _] Fike never pees nein np a FP we oe eae Ma Ques Cwsren th CSD Ee ev Maa mead aap SuTCoSa Seer) Cee tects sft Ure oman a Secseld oe — Savings valid April 9 - May 4, 2O25 Ors Oser</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1716,7 +1636,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:01.298</t>
+          <t>2025-05-14 15:11:18.953</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1729,14 +1649,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>i Boe</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>RECEIVE A Biigte) a, 7 45% a8 Be AR Luks. Costco Sho, ° = o rm , p Card oG Ba Rf ite anGrover window I 3... Weaken! purchases ey A io e ae. OP} —- &amp; - RECEIVE A Misxiy car ] - 9, 3 2 Ii c I5 %o i : B- Costco Shop Card” a ‘on quaitying Shaw carpet ge Siioorng purchases. -SAES3R yea Watt tengbome, DMS Soca y. * Cato vit Gost como ett acpi tne coretaton Graber (ASE I42IO« Say 2 22-44O shop Receive a , &lt; [&lt;) 9 auld I5% 4 I Costco Shop Card” 7 : ‘on qualifying Lennox home J afalI 3 comfort systems purchases. All I I 3 - 4 ARE) cau I-877-483-6226 or visit SBPERS Costco.com for a coniplimentary, ig Ciccone I LENNOR) acer meriemeaer coeanetam, +COSICO.COM Savings valid April 9 - May 4, 2O25 “Onine prices maybe higher.</t>
+          <t>i Boe RECEIVE A Biigte) a, 7 45% a8 Be AR Luks. Costco Sho, ° = o rm , p Card oG Ba Rf ite anGrover window I 3... Weaken! purchases ey A io e ae. OP} —- &amp; - RECEIVE A Misxiy car ] - 9, 3 2 Ii c I5 %o i : B- Costco Shop Card” a ‘on quaitying Shaw carpet ge Siioorng purchases. -SAES3R yea Watt tengbome, DMS Soca y. * Cato vit Gost como ett acpi tne coretaton Graber (ASE I42IO« Say 2 22-44O shop Receive a , &lt; [&lt;) 9 auld I5% 4 I Costco Shop Card” 7 : ‘on qualifying Lennox home J afalI 3 comfort systems purchases. All I I 3 - 4 ARE) cau I-877-483-6226 or visit SBPERS Costco.com for a coniplimentary, ig Ciccone I LENNOR) acer meriemeaer coeanetam, +COSICO.COM Savings valid April 9 - May 4, 2O25 “Onine prices maybe higher</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1758,7 +1674,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:01.939</t>
+          <t>2025-05-14 15:11:19.707</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1771,14 +1687,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>$6-8O°FF SAVESGQ-GO°</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>I tumssiomnee WANT SET OF 4 Michelin Tes Maton Oe SS @&gt; ‘SAVE $4O" on a set $899.99 or ess OR eaten Ge. [ee SAVE $6O" on ase $9OO or mere teveraena Se Be. Penni ay LAT ror sa, of eet ' " By I cee Tenet peiatam I tinteeot eaten Sata ae Joe Te $IO-I5O°F" S56OOFF First Alert ‘Bounty Advanced SIN OFF Fre Evimguer I Paper Tots venga AND/OA r2nO3 Sheets = ees CEE I Sone - OR Bay Coron Fy oer ioise fr ena ssesI CO" inna a 2k &gt; Lc oul I ee ane Dykcsion =a. egy ston = p eer _ ia [a] cad 2 ia</t>
+          <t>6-8O°FF SAVESGQ-GO° I tumssiomnee WANT SET OF 4 Michelin Tes Maton Oe SS @&gt; ‘SAVE $4O" on a set $899.99 or ess OR eaten Ge. [ee SAVE $6O" on ase $9OO or mere teveraena Se Be. Penni ay LAT ror sa, of eet ' " By I cee Tenet peiatam I tinteeot eaten Sata ae Joe Te $IO-I5O°F" S56OOFF First Alert ‘Bounty Advanced SIN OFF Fre Evimguer I Paper Tots venga AND/OA r2nO3 Sheets = ees CEE I Sone - OR Bay Coron Fy oer ioise fr ena ssesI CO" inna a 2k &gt; Lc oul I ee ane Dykcsion =a. egy ston = p eer _ ia [a] cad 2 ia</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1812,7 +1724,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:01.939</t>
+          <t>2025-05-14 15:11:19.707</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1825,14 +1737,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>$5 OFF</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Q OFF Kleenex® Trusted Care® Lysol Bisinfecting Wipes Facial Tissue Vanety pack, 495.I IO/23O boat tem 723675, LMS uae : eee 7s - Ue I (Fim 25 neta 3 aadal we” I, Costealfsldercom epee Cob ! _ —_——— $4IOOFF" CESEE I SH OFF Sevan Away Compete ylabone Performance Plus Gat Litter 42 tos Natural HUBZ retest Fable = &lt; NT Dog chews Fras ore . 2 Hees AO ow a. sone” BRIN R Ie reo _ ap) eh a \ conmeree Savings valid April 9 May 4, 2O25 Costcolnsider.com</t>
+          <t>5 OFF $Q OFF Kleenex® Trusted Care® Lysol Bisinfecting Wipes Facial Tissue Vanety pack, 495.I IO/23O boat tem 723675, LMS uae : eee 7s - Ue I (Fim 25 neta 3 aadal we” I, Costealfsldercom epee Cob ! _ —_——— $4IOOFF" CESEE I SH OFF Sevan Away Compete ylabone Performance Plus Gat Litter 42 tos Natural HUBZ retest Fable = &lt; NT Dog chews Fras ore . 2 Hees AO ow a. sone” BRIN R Ie reo _ ap) eh a \ conmeree Savings valid April 9 May 4, 2O25 Costcolnsider.com</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1866,7 +1774,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:02.442</t>
+          <t>2025-05-14 15:11:20.567</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1886,7 +1794,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4,79999 S6OOOF A Sc uaean z e535 OLitdoor FF Moor tt Sa isa een peta ert ons a $I,499°9 $I5OO $I,499" sunita I Square 3-Tor posed Odor Santlever Unbreke {Piece Seating Set pani pevieo Pept me ans 99 $4,29999 a +2OO ce woe ag Thomanite ia ‘Thomasville Langdon is Pecos Seton Es Fabre Seconal win CDP Incaxdes [rece ceetaz as. HO es Storage GHtoran Se ities reser, UMS &gt; me TOS Re $I5O-3OO°F $2,79999 MRCOOL DIY 5th Gen Ouctiess Min Split AFTER $7OOOFF . Heat Purng Completa System fartline Pakmetto I6° x: aalable @ I2.OOO, ort Yourself Wood Shed I8OOOO8 peimseeys 24,OOO BTU. wns Pretec eae beer ; Isis i y= a are =s AE =e Costco.com Only Costeoinsider:</t>
+          <t>4,79999 S6OOOF A Sc uaean z e535 OLitdoor FF Moor tt Sa isa een peta ert ons a $I,499°9 $I5OO $I,499" sunita I Square 3-Tor posed Odor Santlever Unbreke {Piece Seating Set pani pevieo Pept me ans 99 $4,29999 a +2OO ce woe ag Thomanite ia ‘Thomasville Langdon is Pecos Seton Es Fabre Seconal win CDP Incaxdes [rece ceetaz as. HO es Storage GHtoran Se ities reser, UMS &gt; me TOS Re $I5O-3OO°F $2,79999 MRCOOL DIY 5th Gen Ouctiess Min Split AFTER $7OOOFF . Heat Purng Completa System fartline Pakmetto I6° x: aalable @ I2.OOO, ort Yourself Wood Shed I8OOOO8 peimseeys 24,OOO BTU. wns Pretec eae beer ; Isis i y= a are =s AE =e Costco.com Only Costeoinsider</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -1908,7 +1816,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:02.985</t>
+          <t>2025-05-14 15:11:21.473</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1921,11 +1829,7 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>$899°9 $3,29999</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>899°9 $3,29999 FTE 83OO OFF AFTER $I,2OO OFF Palm iy 7-Pieee Dining Set Round Beiliant 2.OO ctw ¥S2 Glarty, nomi AE I Color Diamond Platinum Band tier vente aes goo" 249%" proSicel I.4.cu. tt, HSI8 Home &amp; Gun AFTER $II ‘Safe UL* Electronic Lock &amp; Fire Raled Kohler O3-325 Premium Bidet Seat Torn I8O62O7 with Remote Control ti? Agile ofomsied ORB. ~™ ee ~ I a Lowes e : &gt; yl - : $69999 $3,29999 AFTER $2OO OFF OO Arter si.cooorr HP Pavilion I6" Touchscreen Laptop ‘Aguaterra Spas Montecito stem I825559. +45-Jet, 6-Person tar Ratomoided Spa Z osteoinsider.com oe i a= . asso . $59999 $5499 AFTER $25OOFF OO arten sooorr UP I73" Touchscreen Lapton ‘Mannika Health UMF 2O+ (GO 85O+) em 5I6856 aw Mama Honey wef $8 = 4 F — Manuka maa vet wa sso. ad Savings valid April 9 - May 4, 2O25 Oss Of</t>
@@ -1950,7 +1854,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:03.724</t>
+          <t>2025-05-14 15:11:22.263</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1963,11 +1867,7 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>sais 4,IOO</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>sais 4,IOO OFF 545O-8OOO% 8IOO-I, Seleri. Sppiances sat sorsors sare, OG a : — I $23O-I,IOOO7, costco I NEXT I Scene eq eOFF 6 BASE ease et a . Seer ae I no unn wees i ‘Seana atop, JI ' OF</t>
@@ -2000,7 +1900,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:03.724</t>
+          <t>2025-05-14 15:11:22.263</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2013,14 +1913,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>$3 OFF</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SSOFF gay Mr ean Downy Gomty Cory, HE Zin Tee oa] Senecio (al leaner oe Se na pe Se oe cin! em ty! S &gt; fssusiess Gomer SGOFF $45O OFF’ Cascade Platinum Plus Chine OF Hefty Diamond Lunch Plates Ca Secs aon mean tem are Co I I a ; Road - Gre rs oe I a LJ wath I tn Savings: valid April 9- May 4, 2O25 “Ondine paces may be higher.</t>
+          <t>3 OFF SSOFF gay Mr ean Downy Gomty Cory, HE Zin Tee oa] Senecio (al leaner oe Se na pe Se oe cin! em ty! S &gt; fssusiess Gomer SGOFF $45O OFF’ Cascade Platinum Plus Chine OF Hefty Diamond Lunch Plates Ca Secs aon mean tem are Co I I a ; Road - Gre rs oe I a LJ wath I tn Savings: valid April 9- May 4, 2O25 “Ondine paces may be higher</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2050,7 +1946,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:04.474</t>
+          <t>2025-05-14 15:11:22.844</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2063,14 +1959,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>pee I</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>45OOrF $2.9O OFF ‘ir Wiek Scented Os n=. cael se te vary Bi 322+ ax EY aan = ne: O ets as th af Lee Ses céateolfsiqer samy a “A _ ie gd By 8 2O 2s , I ee = I $22OOFF"</t>
+          <t>pee I $45OOrF $2.9O OFF ‘ir Wiek Scented Os n=. cael se te vary Bi 322+ ax EY aan = ne: O ets as th af Lee Ses céateolfsiqer samy a “A _ ie gd By 8 2O 2s , I ee = I $22OOFF</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2100,7 +1992,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:04.474</t>
+          <t>2025-05-14 15:11:22.844</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2150,7 +2042,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:05.273</t>
+          <t>2025-05-14 15:11:23.403</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2163,14 +2055,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>[ssusinea center</t>
-        </is>
-      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>sCostco coy EEA Se $Q6OOrF $Q4O Sqraye pT” I Seecsine it f I Free &amp; Clear I aval a f HELiquid hale 7 I tae a f taunt I% pre I _UltraCiean he ae" fF -_- = Furness comer \ stostea. com]</t>
+          <t>ssusinea center sCostco coy EEA Se $Q6OOrF $Q4O Sqraye pT” I Seecsine it f I Free &amp; Clear I aval a f HELiquid hale 7 I tae a f taunt I% pre I _UltraCiean he ae" fF -_- = Furness comer \ stostea. com</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2200,7 +2088,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:05.273</t>
+          <t>2025-05-14 15:11:23.403</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2213,14 +2101,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>$6 OFF</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SG OFF ‘SPetlegring Sparkling Water I5°25 3I ‘Aland Nu Energy Dein Hewes Moree Ae I ER HS PELLEORING F I Hat ess eee 2 $QOFF</t>
+          <t>6 OFF SG OFF ‘SPetlegring Sparkling Water I5°25 3I ‘Aland Nu Energy Dein Hewes Moree Ae I ER HS PELLEORING F I Hat ess eee 2 $QOFF</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2250,7 +2134,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:05.273</t>
+          <t>2025-05-14 15:11:23.403</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2300,7 +2184,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:05.273</t>
+          <t>2025-05-14 15:11:23.403</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2313,14 +2197,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>$2 OFF</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sey top TSUN Lotus Bakeries Biscoff Cookies 35 2 oz bs . hon B79? LANT I) Popeam SKINNY i) se" I Dp bptas) &amp; SCO’ + ORGANIC I * 4, 4 ae hoe YW ‘Savings valld April 9 - May 4, 2O25 “Online prices maybe higher</t>
+          <t>2 OFF Sey top TSUN Lotus Bakeries Biscoff Cookies 35 2 oz bs . hon B79? LANT I) Popeam SKINNY i) se" I Dp bptas) &amp; SCO’ + ORGANIC I * 4, 4 ae hoe YW ‘Savings valld April 9 - May 4, 2O25 “Online prices maybe higher</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2350,7 +2230,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:06.090</t>
+          <t>2025-05-14 15:11:23.993</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2363,14 +2243,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>$4 OFF"</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>47OOFF t&lt; Corn Snac mn ge Gi OS ° gous, wt IS DORNERS, 2 ee ee PDE Costoovistalrcom $Q6OOFF $Q5OOFF” I Edward Mare Chocolatier mscooree I PRA ESI Gir Scouts Soronch il Ie I oo Bonties Se TAT filed oven? B27 O8 [neti ate REO Ma Dee ats z N fe) A ee Bie ‘ ZL ote OF I = be I eS Feausiness center \ stostzocomlle Poo</t>
+          <t>4 OFF" $47OOFF t&lt; Corn Snac mn ge Gi OS ° gous, wt IS DORNERS, 2 ee ee PDE Costoovistalrcom $Q6OOFF $Q5OOFF” I Edward Mare Chocolatier mscooree I PRA ESI Gir Scouts Soronch il Ie I oo Bonties Se TAT filed oven? B27 O8 [neti ate REO Ma Dee ats z N fe) A ee Bie ‘ ZL ote OF I = be I eS Feausiness center \ stostzocomlle Poo</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2400,7 +2276,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:06.090</t>
+          <t>2025-05-14 15:11:23.993</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2413,14 +2289,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>$5 OFF</t>
-        </is>
-      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>DSTMERIY I tctmann's on best Foods fete toy asia Cincy Groncta Bars MANUIMAM I Sos eer Sea &gt; ze hem B46: S5 Ree oe en eo) = Roe jee = ae ¥ v oo [-sucinesscener \ scasten.com]</t>
+          <t>5 OFF DSTMERIY I tctmann's on best Foods fete toy asia Cincy Groncta Bars MANUIMAM I Sos eer Sea &gt; ze hem B46: S5 Ree oe en eo) = Roe jee = ae ¥ v oo [-sucinesscener \ scasten.com</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2450,7 +2322,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:06.090</t>
+          <t>2025-05-14 15:11:23.993</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2463,14 +2335,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>$3 OFF</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SG4OOFF Rac's Homemade ‘Dunkin’ Donuts ‘Marinara Sauce es ee 2a Original Blend CD ~) tas . crate” EDUMINE "I egpyaney I sewn} Savings valid April 9- May 4, 2O25 Costeoinsider.com</t>
+          <t>3 OFF SG4OOFF Rac's Homemade ‘Dunkin’ Donuts ‘Marinara Sauce es ee 2a Original Blend CD ~) tas . crate” EDUMINE "I egpyaney I sewn} Savings valid April 9- May 4, 2O25 Costeoinsider.com</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2500,7 +2368,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:06.623</t>
+          <t>2025-05-14 15:11:24.474</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2513,14 +2381,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>[business caster</t>
-        </is>
-      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>sCostco.cong $55OOrF S$QOrFF Wita Coco Coconut Water Sanyo abide aren acne oat ° SUNT one TSAR I tne Eee I ~ an} 7 $4SOOFF" $Q9OOFF Mini Babybel ae = Kerrypold Pure Irish Butter Cheese PCIE I ison sass OR Ves 36 ct Orgel NCL Seton cons yb an 9S Gd, fem II72874, OPO? I2O782O ove car RNY van stor Sennen . e $Q9OOFF = Sambazon Organic on $35OOFF ae denny Organic Seo ay I . Radnbow Frut Stacks I8 ct . soo aS) ACAI por I &amp; $4 2OOFF</t>
+          <t>business caster \ sCostco.cong $55OOrF S$QOrFF Wita Coco Coconut Water Sanyo abide aren acne oat ° SUNT one TSAR I tne Eee I ~ an} 7 $4SOOFF" $Q9OOFF Mini Babybel ae = Kerrypold Pure Irish Butter Cheese PCIE I ison sass OR Ves 36 ct Orgel NCL Seton cons yb an 9S Gd, fem II72874, OPO? I2O782O ove car RNY van stor Sennen . e $Q9OOFF = Sambazon Organic on $35OOFF ae denny Organic Seo ay I . Radnbow Frut Stacks I8 ct . soo aS) ACAI por I &amp; $4 2OOFF</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2550,7 +2414,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:06.623</t>
+          <t>2025-05-14 15:11:24.474</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2563,14 +2427,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>$4 OFF</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Don Lea Farms Crispy Shredded ‘Royal Asis Pravn Hacao with Crrgey 5 Bees A, ? Saneppen! “agree CHICKEN 4 a TACOS By = fs er Sy : = 2 a, bE en 2 Savings valid April 9 - May 4, 2O25 *Qniine prices may be higher</t>
+          <t>4 OFF ‘Don Lea Farms Crispy Shredded ‘Royal Asis Pravn Hacao with Crrgey 5 Bees A, ? Saneppen! “agree CHICKEN 4 a TACOS By = fs er Sy : = 2 a, bE en 2 Savings valid April 9 - May 4, 2O25 *Qniine prices may be higher</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2600,7 +2460,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:07.437</t>
+          <t>2025-05-14 15:11:25.313</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2613,14 +2473,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>$5O OFF</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Uy B's Organic Bean, sabatasso's Pizza Singles ‘oe &amp; Cheese Gumi aio wweeles vat tarts bare BREE es: jreannaies ener es I BeSicolnsider.cof pate 2 SS $Q5OOFF Sg Orr" Feser’s Mala St. Bistra erect Bar Opn Protea Bar Baked Scalloped Potatoes 5 aac ter 6 eR a tor (set 8 cg BE (Ben e=— 22 (ig $4,OFF $25O_3OFF ‘Good Foods Organic Chunky Guacamole I $2.5O GFF Wipe ‘N Clear ‘B'3O7 OR WHOLLY® Guacamole Classic I Lens Wipes 75 ct Ceganie Bows 3I5 O7 Nature Made ton 365 c¢ an Graze, O6I aO 9 I R3Oe Kestnd Senate Dah soot «EY. ocaiee I 5 ia : I aia 8G a 8 cs ee $9.5 OFF $3.4 OFF" ‘S3OFF Tums ‘SAOFF EDS in Ua erg 265 ct. LpBoinvanetycac. 9ct nae Grey Bios IO8 ct ‘$3.5O OFF Nature Made $3.5O OFF Gas-X Extra Stengm I2OI Soper C 2OO SSS OFF Genefiber Fiber Suppiemen Kieitand Signature a 25 ae easamne win NSLS ct fen iete ars I38 swore Tara iat sar 4 O a pat an ' Trae = ian) (G22 aes = I2, tums I a I398I4 J ants 4 ‘Savings valid April @~ May 4, 2O25 Costcolnsider.com</t>
+          <t>5O OFF Uy B's Organic Bean, sabatasso's Pizza Singles ‘oe &amp; Cheese Gumi aio wweeles vat tarts bare BREE es: jreannaies ener es I BeSicolnsider.cof pate 2 SS $Q5OOFF Sg Orr" Feser’s Mala St. Bistra erect Bar Opn Protea Bar Baked Scalloped Potatoes 5 aac ter 6 eR a tor (set 8 cg BE (Ben e=— 22 (ig $4,OFF $25O_3OFF ‘Good Foods Organic Chunky Guacamole I $2.5O GFF Wipe ‘N Clear ‘B'3O7 OR WHOLLY® Guacamole Classic I Lens Wipes 75 ct Ceganie Bows 3I5 O7 Nature Made ton 365 c¢ an Graze, O6I aO 9 I R3Oe Kestnd Senate Dah soot «EY. ocaiee I 5 ia : I aia 8G a 8 cs ee $9.5 OFF $3.4 OFF" ‘S3OFF Tums ‘SAOFF EDS in Ua erg 265 ct. LpBoinvanetycac. 9ct nae Grey Bios IO8 ct ‘$3.5O OFF Nature Made $3.5O OFF Gas-X Extra Stengm I2OI Soper C 2OO SSS OFF Genefiber Fiber Suppiemen Kieitand Signature a 25 ae easamne win NSLS ct fen iete ars I38 swore Tara iat sar 4 O a pat an ' Trae = ian) (G22 aes = I2, tums I a I398I4 J ants 4 ‘Savings valid April @~ May 4, 2O25 Costcolnsider.com</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2642,7 +2498,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:08.175</t>
+          <t>2025-05-14 15:11:26.023</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2655,14 +2511,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>$4 OFF</t>
-        </is>
-      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>RMB crits orsteyt es 2O8 I or $Q-75OOFF cad Biotreeze Roe 23I ~ ee $3° sekane Sieaie Bigsve Rota Ta te HoT - gem et USB S4Ot es oki sosy llr He tae a a — ree, a sare? F im ee GANT LS EACH ‘ ee mae $qor Wem /</t>
+          <t>4 OFF RMB crits orsteyt es 2O8 I or $Q-75OOFF cad Biotreeze Roe 23I ~ ee $3° sekane Sieaie Bigsve Rota Ta te HoT - gem et USB S4Ot es oki sosy llr He tae a a — ree, a sare? F im ee GANT LS EACH ‘ ee mae $qor Wem</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2692,7 +2544,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:08.175</t>
+          <t>2025-05-14 15:11:26.023</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2705,14 +2557,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>$4OFF CEEEy</t>
-        </is>
-      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Nature's Bounty Viana II3 4OO ct ‘SmartyPants Fs Hult Gunes I4O.4, ‘Nature Made Sorex B-Congre AEN ‘pumature Aacaved Daesine Faber I9 Fish Oil 3OO ot Women s Daily Petit ¢ 9O-ct. fay ee I Cy Ds I (gene) ee =eAb a SqQ5OOFF YEREEM /S45OOrr’ YEE ‘Aleve Lqud Gels Excedrin = Caplets 32OI I Aes econ i Nature Made we ee, es 36O2. scoaw I Adbill Maen cee I pwaioe 7 I8OcI pyres PRR, I sels 2O2OI 4 Nedtled Sess BM I Sires es Finse kt = Ee = Rese Kt I —_ ees ae aoe era. - cr, ER) Neintgt ‘Adyill I Pe oe ae IPM). see baie vdvil PH t tne scacn a nie ga r = SSE Fae SQSOOFF WORE I $4-5OFF Centrum: ($4 DFF Pure Alaska Gmega ‘Siver Men 5O+ (ame) (SSE) I san oizioc 4 Mu 275 ct, $4.5O OFF Kirkland ‘Suyer Women $O4 ‘Signature P ian 278I Cogan oH BO ct Retreat</t>
+          <t>4OFF CEEEy ‘Nature's Bounty Viana II3 4OO ct ‘SmartyPants Fs Hult Gunes I4O.4, ‘Nature Made Sorex B-Congre AEN ‘pumature Aacaved Daesine Faber I9 Fish Oil 3OO ot Women s Daily Petit ¢ 9O-ct. fay ee I Cy Ds I (gene) ee =eAb a SqQ5OOFF YEREEM /S45OOrr’ YEE ‘Aleve Lqud Gels Excedrin = Caplets 32OI I Aes econ i Nature Made we ee, es 36O2. scoaw I Adbill Maen cee I pwaioe 7 I8OcI pyres PRR, I sels 2O2OI 4 Nedtled Sess BM I Sires es Finse kt = Ee = Rese Kt I —_ ees ae aoe era. - cr, ER) Neintgt ‘Adyill I Pe oe ae IPM). see baie vdvil PH t tne scacn a nie ga r = SSE Fae SQSOOFF WORE I $4-5OFF Centrum: ($4 DFF Pure Alaska Gmega ‘Siver Men 5O+ (ame) (SSE) I san oizioc 4 Mu 275 ct, $4.5O OFF Kirkland ‘Suyer Women $O4 ‘Signature P ian 278I Cogan oH BO ct Retreat</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2742,7 +2590,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:08.175</t>
+          <t>2025-05-14 15:11:26.023</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2762,7 +2610,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5 OFF Inpie Acton - Teas a8. « RO I eocteath tot leis) sil. Frama] I Netra Vitaly Pras IOO single-use I Calm bagnesum vals Famer I Powder 2OO7 von IOO3O3 Be I tena Tepe 5OO7O, Tiree O69 ame ea ts ‘Savings valid Aprit 9 - May 4, 2O25 “Online prices may be mghet.</t>
+          <t>5 OFF Inpie Acton - Teas a8. « RO I eocteath tot leis) sil. Frama] I Netra Vitaly Pras IOO single-use I Calm bagnesum vals Famer I Powder 2OO7 von IOO3O3 Be I tena Tepe 5OO7O, Tiree O69 ame ea ts ‘Savings valid Aprit 9 - May 4, 2O25 “Online prices may be mghet</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2792,7 +2640,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:08.838</t>
+          <t>2025-05-14 15:11:26.643</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2805,14 +2653,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>$5 OFF</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5-6OFF Uy gauseh + 8 Sots</t>
+          <t>5 OFF $5-6OFF Uy gauseh + 8 Sots</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2842,7 +2686,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:08.838</t>
+          <t>2025-05-14 15:11:26.643</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2855,14 +2699,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>$5 OFF</t>
-        </is>
-      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Nature's Bounty an Seep este I2 gab tier REY I O5Ok Dssbe 6 I2258 ae eS rr Gvterns Bich fig] g . $6O Osteo si-rex ‘O5 2) I hoesnengh wrt =~ Conia ee ae iran Signature a woe I == I rm tS = Seep ‘hae - * cael = aa] I</t>
+          <t>5 OFF Nature's Bounty an Seep este I2 gab tier REY I O5Ok Dssbe 6 I2258 ae eS rr Gvterns Bich fig] g . $6O Osteo si-rex ‘O5 2) I hoesnengh wrt =~ Conia ee ae iran Signature a woe I == I rm tS = Seep ‘hae - * cael = aa] I</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2892,7 +2732,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:08.838</t>
+          <t>2025-05-14 15:11:26.643</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2905,14 +2745,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>$7 OFF</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>55O.75 ep etre dye Day crc tO 55:5O OFF Nature Made Gly I xin ei 'ts 7OO. faasos bp Varn 85OI iad ‘§75O OFF Kirktand Signatwe as ieee my I ‘ ryen II99823. S iS (37O385, I82O335 . 4] - a gan 8 &amp; = ~~ $6-89FF $gorr (</t>
+          <t>7 OFF $55O.75 ep etre dye Day crc tO 55:5O OFF Nature Made Gly I xin ei 'ts 7OO. faasos bp Varn 85OI iad ‘§75O OFF Kirktand Signatwe as ieee my I ‘ ryen II99823. S iS (37O385, I82O335 . 4] - a gan 8 &amp; = ~~ $6-89FF $gorr</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2942,7 +2778,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:08.838</t>
+          <t>2025-05-14 15:11:26.643</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2955,14 +2791,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>$6 OFF</t>
-        </is>
-      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sports Researctt ature Made COIO 9O ct Yamin D3 + K2 I6Oct Voltaren Artris Pan Gel 2/5 29O¢ = I76: 7 OFF tlagnesum LTeveonte I6O ct Rows eas Seperen sta Qanal Lad Titman 2O-4 oe Bausch + Lomd PreserVision SBOFr es eo O8I2 apeds22IOct pated eh nom 3O9 nee $8-II OFF Ca $Q5O.QOFF $2 O7 Doan es 5 $85O OFF Clartn Tanets I5 ct ay Fatlets I2OO) SO FF Nesnoort Ary 6I2O 36 ‘SII OFF Flonase Alergy Reet 2I44 Sora, Srano tinea Sao segyha 9O8 Se Aga ey Oc Tiaexo wore EST) GND OE ten 87 area? Ant SAH ea) Savings valid April 9 - May 4, 2O25 Costcoinsider.com</t>
+          <t>6 OFF Sports Researctt ature Made COIO 9O ct Yamin D3 + K2 I6Oct Voltaren Artris Pan Gel 2/5 29O¢ = I76: 7 OFF tlagnesum LTeveonte I6O ct Rows eas Seperen sta Qanal Lad Titman 2O-4 oe Bausch + Lomd PreserVision SBOFr es eo O8I2 apeds22IOct pated eh nom 3O9 nee $8-II OFF Ca $Q5O.QOFF $2 O7 Doan es 5 $85O OFF Clartn Tanets I5 ct ay Fatlets I2OO) SO FF Nesnoort Ary 6I2O 36 ‘SII OFF Flonase Alergy Reet 2I44 Sora, Srano tinea Sao segyha 9O8 Se Aga ey Oc Tiaexo wore EST) GND OE ten 87 area? Ant SAH ea) Savings valid April 9 - May 4, 2O25 Costcoinsider.com</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2992,7 +2824,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:09.257</t>
+          <t>2025-05-14 15:11:27.124</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3005,14 +2837,10 @@
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>™ mae</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>mae WOMT!"S we FT i va —————— . eho i’ xamcza “ Probiotic IO _— oa fs Ma : a ae congo sGor = sqorr SQOFF SBROFF Magnesium Advanced Halr, Skin &amp; — Hair, Skin &amp; Naits Probiotic IO Glycinate I8O ct Nail Gummies 23O ct Softgels 25O-ct Wet Nem G4Z5 UMTS em HTEDOD LIT Tb Hem SSuRUUIAT TS nA ; mei te , +Costco.com Savane eve £ vee ~~</t>
+          <t>mae WOMT!"S we FT i va —————— . eho i’ xamcza “ Probiotic IO _— oa fs Ma : a ae congo sGor = sqorr SQOFF SBROFF Magnesium Advanced Halr, Skin &amp; — Hair, Skin &amp; Naits Probiotic IO Glycinate I8O ct Nail Gummies 23O ct Softgels 25O-ct Wet Nem G4Z5 UMTS em HTEDOD LIT Tb Hem SSuRUUIAT TS nA ; mei te , +Costco.com Savane eve £ vee</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
